--- a/Code/Results/Cases/Case_7_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_11/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.779126892769114</v>
+        <v>1.372211397697072</v>
       </c>
       <c r="C2">
-        <v>0.6520653456617538</v>
+        <v>0.209179934029379</v>
       </c>
       <c r="D2">
-        <v>0.002773721582860489</v>
+        <v>0.01829025106898285</v>
       </c>
       <c r="E2">
-        <v>0.03340955764685027</v>
+        <v>0.05133392934182623</v>
       </c>
       <c r="F2">
-        <v>2.675912884368842</v>
+        <v>2.382887837243203</v>
       </c>
       <c r="G2">
-        <v>0.0008199005528219597</v>
+        <v>0.0008479610028653789</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08583562684354007</v>
+        <v>0.108474797638813</v>
       </c>
       <c r="K2">
-        <v>0.7717861262039349</v>
+        <v>1.488173135395158</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6825364407470005</v>
+        <v>0.4007318258021186</v>
       </c>
       <c r="N2">
-        <v>1.573314464316681</v>
+        <v>2.260317690078054</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.419748229612651</v>
+        <v>1.205303136895992</v>
       </c>
       <c r="C3">
-        <v>0.5647242343231937</v>
+        <v>0.1825540509985188</v>
       </c>
       <c r="D3">
-        <v>0.002487206778783779</v>
+        <v>0.0158561387899212</v>
       </c>
       <c r="E3">
-        <v>0.03162453736113413</v>
+        <v>0.04711233421226524</v>
       </c>
       <c r="F3">
-        <v>2.478698653700349</v>
+        <v>2.260792046704267</v>
       </c>
       <c r="G3">
-        <v>0.000828743480714946</v>
+        <v>0.0008548459712570311</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08157959208236321</v>
+        <v>0.1022009565725526</v>
       </c>
       <c r="K3">
-        <v>0.6710077305787721</v>
+        <v>1.305271656029902</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5985681810192389</v>
+        <v>0.3548004565125567</v>
       </c>
       <c r="N3">
-        <v>1.594666245442966</v>
+        <v>2.265434243399255</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.203362239725664</v>
+        <v>1.104567798019986</v>
       </c>
       <c r="C4">
-        <v>0.5121337503554457</v>
+        <v>0.1664931995429981</v>
       </c>
       <c r="D4">
-        <v>0.002317412255389506</v>
+        <v>0.01436882722661181</v>
       </c>
       <c r="E4">
-        <v>0.03057165539187245</v>
+        <v>0.04458665863270816</v>
       </c>
       <c r="F4">
-        <v>2.362816899367076</v>
+        <v>2.189172918653568</v>
       </c>
       <c r="G4">
-        <v>0.0008343165999804558</v>
+        <v>0.0008592001654190306</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07910797989234908</v>
+        <v>0.09849891343862538</v>
       </c>
       <c r="K4">
-        <v>0.6103266402271998</v>
+        <v>1.194895309337141</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5480860441666735</v>
+        <v>0.3271273469180187</v>
       </c>
       <c r="N4">
-        <v>1.609894026992833</v>
+        <v>2.270641011643548</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.116125565822244</v>
+        <v>1.063911061918049</v>
       </c>
       <c r="C5">
-        <v>0.4909293311482372</v>
+        <v>0.1600124287435705</v>
       </c>
       <c r="D5">
-        <v>0.002249501615221305</v>
+        <v>0.01376430718409338</v>
       </c>
       <c r="E5">
-        <v>0.03015275723048028</v>
+        <v>0.04357296007130351</v>
       </c>
       <c r="F5">
-        <v>2.316786774129014</v>
+        <v>2.160773106605504</v>
       </c>
       <c r="G5">
-        <v>0.0008366255178952324</v>
+        <v>0.0008610073911089495</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07813375340050399</v>
+        <v>0.09702555185788952</v>
       </c>
       <c r="K5">
-        <v>0.5858619687597368</v>
+        <v>1.150349158228579</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5277532269154435</v>
+        <v>0.3159705852869266</v>
       </c>
       <c r="N5">
-        <v>1.616601540791549</v>
+        <v>2.273258591828409</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.101693240711597</v>
+        <v>1.057182549018876</v>
       </c>
       <c r="C6">
-        <v>0.4874210971580055</v>
+        <v>0.1589399493294792</v>
       </c>
       <c r="D6">
-        <v>0.00223829564360134</v>
+        <v>0.01366401508370529</v>
       </c>
       <c r="E6">
-        <v>0.03008379417525653</v>
+        <v>0.04340554193842294</v>
       </c>
       <c r="F6">
-        <v>2.309212300879594</v>
+        <v>2.156103210815445</v>
       </c>
       <c r="G6">
-        <v>0.0008370112447761051</v>
+        <v>0.0008613094913520792</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07797390260178361</v>
+        <v>0.0967829605348669</v>
       </c>
       <c r="K6">
-        <v>0.5818144936898477</v>
+        <v>1.142977032884659</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.524390554863281</v>
+        <v>0.3141249203353169</v>
       </c>
       <c r="N6">
-        <v>1.617744801428643</v>
+        <v>2.273722526409173</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.202182086639937</v>
+        <v>1.104017950819525</v>
       </c>
       <c r="C7">
-        <v>0.5118469055928472</v>
+        <v>0.1664055481836328</v>
       </c>
       <c r="D7">
-        <v>0.00231649151423774</v>
+        <v>0.01436066841086969</v>
       </c>
       <c r="E7">
-        <v>0.03056596571244263</v>
+        <v>0.04457292611981778</v>
       </c>
       <c r="F7">
-        <v>2.36219143970969</v>
+        <v>2.188786799816427</v>
       </c>
       <c r="G7">
-        <v>0.0008343475835798019</v>
+        <v>0.0008592244040062587</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07909471093816123</v>
+        <v>0.0984789036171918</v>
       </c>
       <c r="K7">
-        <v>0.6099956822555725</v>
+        <v>1.194292855814581</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5478109000329781</v>
+        <v>0.3269764122405903</v>
       </c>
       <c r="N7">
-        <v>1.609982492334822</v>
+        <v>2.270674335730746</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.654242718215073</v>
+        <v>1.314270375179575</v>
       </c>
       <c r="C8">
-        <v>0.6217132648044412</v>
+        <v>0.1999345506841195</v>
       </c>
       <c r="D8">
-        <v>0.00267349235187897</v>
+        <v>0.01744930836859382</v>
       </c>
       <c r="E8">
-        <v>0.03278470045934867</v>
+        <v>0.04986381646894955</v>
       </c>
       <c r="F8">
-        <v>2.606758653497849</v>
+        <v>2.340059100260063</v>
       </c>
       <c r="G8">
-        <v>0.0008229208950016027</v>
+        <v>0.000850309228374532</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08433709798419642</v>
+        <v>0.1062788603818845</v>
       </c>
       <c r="K8">
-        <v>0.7367654999204944</v>
+        <v>1.42467700759866</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6533414901171852</v>
+        <v>0.3847769448463865</v>
       </c>
       <c r="N8">
-        <v>1.580217860727529</v>
+        <v>2.261638555392068</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.581294140975331</v>
+        <v>1.742680816796451</v>
       </c>
       <c r="C9">
-        <v>0.847115409485383</v>
+        <v>0.2683690722635674</v>
       </c>
       <c r="D9">
-        <v>0.00343603031903239</v>
+        <v>0.02357624452177021</v>
       </c>
       <c r="E9">
-        <v>0.03751218919019017</v>
+        <v>0.06082324225844005</v>
       </c>
       <c r="F9">
-        <v>3.133555127895221</v>
+        <v>2.666039926480764</v>
       </c>
       <c r="G9">
-        <v>0.0008015654922824829</v>
+        <v>0.0008337852560104607</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09587289764812112</v>
+        <v>0.1228884245975692</v>
       </c>
       <c r="K9">
-        <v>0.9967556870110741</v>
+        <v>1.89426312037557</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8703807798244867</v>
+        <v>0.5029484433861811</v>
       </c>
       <c r="N9">
-        <v>1.540176485402696</v>
+        <v>2.261459802113862</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.297575545613086</v>
+        <v>2.070688501091922</v>
       </c>
       <c r="C10">
-        <v>1.021505940975999</v>
+        <v>0.3209033430865986</v>
       </c>
       <c r="D10">
-        <v>0.004057648203504627</v>
+        <v>0.02814025158637179</v>
       </c>
       <c r="E10">
-        <v>0.04126884047088808</v>
+        <v>0.06931841322235499</v>
       </c>
       <c r="F10">
-        <v>3.558585109501621</v>
+        <v>2.927656428963729</v>
       </c>
       <c r="G10">
-        <v>0.0007863823222311381</v>
+        <v>0.0008221576898175749</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1053201911176203</v>
+        <v>0.136079926624177</v>
       </c>
       <c r="K10">
-        <v>1.197698075459044</v>
+        <v>2.25398631197163</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.038454841626184</v>
+        <v>0.593671611213189</v>
       </c>
       <c r="N10">
-        <v>1.524321610648229</v>
+        <v>2.273784282667577</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.633777475755323</v>
+        <v>2.223640602790283</v>
       </c>
       <c r="C11">
-        <v>1.103457756782461</v>
+        <v>0.3454474110851038</v>
       </c>
       <c r="D11">
-        <v>0.004360360704245281</v>
+        <v>0.03023508383468965</v>
       </c>
       <c r="E11">
-        <v>0.04305322169020087</v>
+        <v>0.07330094501046247</v>
       </c>
       <c r="F11">
-        <v>3.762583889740057</v>
+        <v>3.052530315141865</v>
       </c>
       <c r="G11">
-        <v>0.0007795504863655397</v>
+        <v>0.0008169616726662669</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1098824799337308</v>
+        <v>0.1423423310725127</v>
       </c>
       <c r="K11">
-        <v>1.292041519970425</v>
+        <v>2.421792665531399</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.117424789602545</v>
+        <v>0.6360304415252998</v>
       </c>
       <c r="N11">
-        <v>1.520677593684695</v>
+        <v>2.282536795937403</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.762840163934015</v>
+        <v>2.28217660224874</v>
       </c>
       <c r="C12">
-        <v>1.134936512069771</v>
+        <v>0.3548489918096607</v>
       </c>
       <c r="D12">
-        <v>0.004478541560949623</v>
+        <v>0.03103147743512125</v>
       </c>
       <c r="E12">
-        <v>0.04374109993937836</v>
+        <v>0.07482799168474585</v>
       </c>
       <c r="F12">
-        <v>3.841596314408463</v>
+        <v>3.100758194673404</v>
       </c>
       <c r="G12">
-        <v>0.000776970921323672</v>
+        <v>0.0008150058929937083</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1116533203534829</v>
+        <v>0.1447556766003117</v>
       </c>
       <c r="K12">
-        <v>1.32826367990387</v>
+        <v>2.486025125994303</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.147751534942785</v>
+        <v>0.6522493026374079</v>
       </c>
       <c r="N12">
-        <v>1.519871850976728</v>
+        <v>2.28634501107851</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.734961826221024</v>
+        <v>2.269541074706297</v>
       </c>
       <c r="C13">
-        <v>1.128135993801038</v>
+        <v>0.3528191759853883</v>
       </c>
       <c r="D13">
-        <v>0.004452918997825961</v>
+        <v>0.03085981319209452</v>
       </c>
       <c r="E13">
-        <v>0.04359238879760063</v>
+        <v>0.07449823853714932</v>
       </c>
       <c r="F13">
-        <v>3.82449716225139</v>
+        <v>3.090327945991561</v>
       </c>
       <c r="G13">
-        <v>0.0007775262003580177</v>
+        <v>0.0008154266057393114</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1112699273910636</v>
+        <v>0.1442339822219978</v>
       </c>
       <c r="K13">
-        <v>1.320439216669698</v>
+        <v>2.472159411014189</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.141200267990229</v>
+        <v>0.6487479674961989</v>
       </c>
       <c r="N13">
-        <v>1.520018780590377</v>
+        <v>2.285502172613462</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.644358842414192</v>
+        <v>2.228443562407051</v>
       </c>
       <c r="C14">
-        <v>1.106038179386417</v>
+        <v>0.3462186467848198</v>
       </c>
       <c r="D14">
-        <v>0.004370007978113932</v>
+        <v>0.03030053824492285</v>
       </c>
       <c r="E14">
-        <v>0.04310956171946678</v>
+        <v>0.07342618428287295</v>
       </c>
       <c r="F14">
-        <v>3.769047528271159</v>
+        <v>3.056478599112182</v>
       </c>
       <c r="G14">
-        <v>0.0007793381339712693</v>
+        <v>0.0008168005419354798</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1100272702803693</v>
+        <v>0.1425400123018505</v>
       </c>
       <c r="K14">
-        <v>1.295011127691367</v>
+        <v>2.427062781788948</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.119910939596465</v>
+        <v>0.6373610656420041</v>
       </c>
       <c r="N14">
-        <v>1.520599417055436</v>
+        <v>2.282839949682824</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.58909817796183</v>
+        <v>2.203352890050724</v>
       </c>
       <c r="C15">
-        <v>1.092562831688213</v>
+        <v>0.3421900563255349</v>
       </c>
       <c r="D15">
-        <v>0.004319707443805498</v>
+        <v>0.02995838731977329</v>
       </c>
       <c r="E15">
-        <v>0.04281544347924715</v>
+        <v>0.07277204973467022</v>
       </c>
       <c r="F15">
-        <v>3.735319958916705</v>
+        <v>3.035870499463783</v>
       </c>
       <c r="G15">
-        <v>0.0007804488676647482</v>
+        <v>0.0008176436093177742</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1092718974325706</v>
+        <v>0.1415079999005968</v>
       </c>
       <c r="K15">
-        <v>1.279502714562568</v>
+        <v>2.399532163479961</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.106927601117043</v>
+        <v>0.6304101958155712</v>
       </c>
       <c r="N15">
-        <v>1.521031805719119</v>
+        <v>2.28127487835738</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.275833920419643</v>
+        <v>2.060774509112036</v>
       </c>
       <c r="C16">
-        <v>1.016208574111317</v>
+        <v>0.3193135234667466</v>
       </c>
       <c r="D16">
-        <v>0.004038321915161625</v>
+        <v>0.02800376152134731</v>
       </c>
       <c r="E16">
-        <v>0.04115385445907904</v>
+        <v>0.06906068496132889</v>
       </c>
       <c r="F16">
-        <v>3.5454866596736</v>
+        <v>2.919621733236283</v>
       </c>
       <c r="G16">
-        <v>0.0007868300377399631</v>
+        <v>0.0008224990088983031</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1050277846294492</v>
+        <v>0.1356762840516552</v>
       </c>
       <c r="K16">
-        <v>1.191597680707716</v>
+        <v>2.243110985228071</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.033349573749042</v>
+        <v>0.5909270911759918</v>
       </c>
       <c r="N16">
-        <v>1.524636587370935</v>
+        <v>2.273279033407306</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.086484758184781</v>
+        <v>1.974318540732213</v>
       </c>
       <c r="C17">
-        <v>0.9700847579653953</v>
+        <v>0.3054547133020549</v>
       </c>
       <c r="D17">
-        <v>0.003871254084885756</v>
+        <v>0.02680973914915086</v>
       </c>
       <c r="E17">
-        <v>0.04015473796498448</v>
+        <v>0.06681545914985421</v>
       </c>
       <c r="F17">
-        <v>3.431912629656608</v>
+        <v>2.849874980748552</v>
       </c>
       <c r="G17">
-        <v>0.0007907616959534515</v>
+        <v>0.0008255004801160321</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1024953943642544</v>
+        <v>0.1321686223499938</v>
       </c>
       <c r="K17">
-        <v>1.138472063622658</v>
+        <v>2.148279045932014</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9888963389495444</v>
+        <v>0.566999191358363</v>
       </c>
       <c r="N17">
-        <v>1.52780279064055</v>
+        <v>2.269207732860394</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.978533931239951</v>
+        <v>1.924938198240113</v>
       </c>
       <c r="C18">
-        <v>0.9437976059103619</v>
+        <v>0.2975433450149865</v>
       </c>
       <c r="D18">
-        <v>0.003776989687168886</v>
+        <v>0.02612469448495602</v>
       </c>
       <c r="E18">
-        <v>0.03958708693830104</v>
+        <v>0.06553504545590982</v>
       </c>
       <c r="F18">
-        <v>3.367574780945489</v>
+        <v>2.810303946593493</v>
       </c>
       <c r="G18">
-        <v>0.0007930303678494434</v>
+        <v>0.0008272357443174752</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1010633968237542</v>
+        <v>0.1301754416420948</v>
       </c>
       <c r="K18">
-        <v>1.108186737326534</v>
+        <v>2.094120560763656</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.9635603531804406</v>
+        <v>0.5533374991165516</v>
       </c>
       <c r="N18">
-        <v>1.529955669415244</v>
+        <v>2.267159421094831</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.942140771392246</v>
+        <v>1.908276169182329</v>
       </c>
       <c r="C19">
-        <v>0.9349368641276783</v>
+        <v>0.2948745580643219</v>
       </c>
       <c r="D19">
-        <v>0.003745368658322867</v>
+        <v>0.02589303365420648</v>
       </c>
       <c r="E19">
-        <v>0.03939605727229889</v>
+        <v>0.06510334832152154</v>
       </c>
       <c r="F19">
-        <v>3.345954060559819</v>
+        <v>2.796996742120641</v>
       </c>
       <c r="G19">
-        <v>0.0007937998459648381</v>
+        <v>0.0008278248492156687</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1005826206413118</v>
+        <v>0.1295046402106763</v>
       </c>
       <c r="K19">
-        <v>1.097977104826739</v>
+        <v>2.075847227886527</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.9550201930001307</v>
+        <v>0.5487285988188972</v>
       </c>
       <c r="N19">
-        <v>1.530739853408861</v>
+        <v>2.266515096893599</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.106540396838511</v>
+        <v>1.983485485580786</v>
       </c>
       <c r="C20">
-        <v>0.9749691998098058</v>
+        <v>0.3069237134949674</v>
       </c>
       <c r="D20">
-        <v>0.003888844941634773</v>
+        <v>0.02693666321592758</v>
       </c>
       <c r="E20">
-        <v>0.04026036063797989</v>
+        <v>0.06705331711482643</v>
       </c>
       <c r="F20">
-        <v>3.443899061850175</v>
+        <v>2.857242513645915</v>
       </c>
       <c r="G20">
-        <v>0.0007903424326954527</v>
+        <v>0.0008251800585371274</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1027623940313376</v>
+        <v>0.1325394707343008</v>
       </c>
       <c r="K20">
-        <v>1.144098808657219</v>
+        <v>2.158333470003356</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9936039977193829</v>
+        <v>0.5695357516866721</v>
       </c>
       <c r="N20">
-        <v>1.527430991486654</v>
+        <v>2.269610478616983</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.670921378322419</v>
+        <v>2.240497502884352</v>
       </c>
       <c r="C21">
-        <v>1.112516160796531</v>
+        <v>0.3481543482652967</v>
       </c>
       <c r="D21">
-        <v>0.004394258500463266</v>
+        <v>0.03046472222903418</v>
       </c>
       <c r="E21">
-        <v>0.04325103800371899</v>
+        <v>0.07374054162058385</v>
       </c>
       <c r="F21">
-        <v>3.785284594925798</v>
+        <v>3.06639460811806</v>
       </c>
       <c r="G21">
-        <v>0.0007788057499781415</v>
+        <v>0.000816396675776511</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1103910518743021</v>
+        <v>0.1430363984160863</v>
       </c>
       <c r="K21">
-        <v>1.302465857884954</v>
+        <v>2.440289333526607</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.126152133221403</v>
+        <v>0.6407006439070599</v>
       </c>
       <c r="N21">
-        <v>1.520412757773869</v>
+        <v>2.283608154180726</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.05012715701389</v>
+        <v>2.412104932092632</v>
       </c>
       <c r="C22">
-        <v>1.20504627388641</v>
+        <v>0.3757340901016448</v>
       </c>
       <c r="D22">
-        <v>0.004745686394546311</v>
+        <v>0.03278897563796335</v>
       </c>
       <c r="E22">
-        <v>0.04527730958851706</v>
+        <v>0.07822253960040015</v>
       </c>
       <c r="F22">
-        <v>4.018804545378941</v>
+        <v>3.208624644847106</v>
       </c>
       <c r="G22">
-        <v>0.0007713077319504781</v>
+        <v>0.0008107243783201501</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.115631542966554</v>
+        <v>0.1501433552244507</v>
       </c>
       <c r="K22">
-        <v>1.408903374101314</v>
+        <v>2.628621202170677</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.215277726288349</v>
+        <v>0.6882633144858019</v>
       </c>
       <c r="N22">
-        <v>1.519207503223541</v>
+        <v>2.295657431862253</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.846695121531127</v>
+        <v>2.32015402264733</v>
       </c>
       <c r="C23">
-        <v>1.155394801641989</v>
+        <v>0.3609511527942857</v>
       </c>
       <c r="D23">
-        <v>0.004555929438048167</v>
+        <v>0.03154662877015113</v>
       </c>
       <c r="E23">
-        <v>0.04418880716821683</v>
+        <v>0.07581950387289993</v>
       </c>
       <c r="F23">
-        <v>3.893133511323384</v>
+        <v>3.13217209722049</v>
       </c>
       <c r="G23">
-        <v>0.0007753069412987923</v>
+        <v>0.0008137461235078184</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1128093988947541</v>
+        <v>0.1463261324554921</v>
       </c>
       <c r="K23">
-        <v>1.351799655424927</v>
+        <v>2.527701858981686</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.167458641261788</v>
+        <v>0.6627740580941222</v>
       </c>
       <c r="N23">
-        <v>1.519518848284932</v>
+        <v>2.288946172381486</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.097470431939371</v>
+        <v>1.979340105388872</v>
       </c>
       <c r="C24">
-        <v>0.9727602321648305</v>
+        <v>0.3062594043803983</v>
       </c>
       <c r="D24">
-        <v>0.00388088660482655</v>
+        <v>0.02687927647192367</v>
       </c>
       <c r="E24">
-        <v>0.04021258768662506</v>
+        <v>0.06694574929277763</v>
       </c>
       <c r="F24">
-        <v>3.438477030892216</v>
+        <v>2.853910016851273</v>
       </c>
       <c r="G24">
-        <v>0.0007905319553889133</v>
+        <v>0.0008253248909138752</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1026416093951994</v>
+        <v>0.1323717375490219</v>
       </c>
       <c r="K24">
-        <v>1.141554161291523</v>
+        <v>2.15378674497822</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9914749820577953</v>
+        <v>0.5683886791885939</v>
       </c>
       <c r="N24">
-        <v>1.527598050457883</v>
+        <v>2.269427489785116</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.325154498080678</v>
+        <v>1.624724368199992</v>
       </c>
       <c r="C25">
-        <v>0.7848114792786021</v>
+        <v>0.2495080256077529</v>
       </c>
       <c r="D25">
-        <v>0.00322089838060613</v>
+        <v>0.0219093092939957</v>
       </c>
       <c r="E25">
-        <v>0.03618777521423056</v>
+        <v>0.05778736105017757</v>
       </c>
       <c r="F25">
-        <v>2.985103236968314</v>
+        <v>2.574299306888719</v>
       </c>
       <c r="G25">
-        <v>0.0008072430663651206</v>
+        <v>0.0008381598546904486</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.09259786200108522</v>
+        <v>0.1182361123458904</v>
       </c>
       <c r="K25">
-        <v>0.924914936620894</v>
+        <v>1.764944151823698</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8103484172898945</v>
+        <v>0.4703694384306942</v>
       </c>
       <c r="N25">
-        <v>1.548817384574022</v>
+        <v>2.25945856480611</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_11/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.372211397697072</v>
+        <v>0.8874410737371932</v>
       </c>
       <c r="C2">
-        <v>0.209179934029379</v>
+        <v>0.176965973869855</v>
       </c>
       <c r="D2">
-        <v>0.01829025106898285</v>
+        <v>0.1089485362912797</v>
       </c>
       <c r="E2">
-        <v>0.05133392934182623</v>
+        <v>0.09594102407934457</v>
       </c>
       <c r="F2">
-        <v>2.382887837243203</v>
+        <v>1.059537568000877</v>
       </c>
       <c r="G2">
-        <v>0.0008479610028653789</v>
+        <v>0.7483069331752006</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.004072799460150822</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.108474797638813</v>
+        <v>0.5493143735643713</v>
       </c>
       <c r="K2">
-        <v>1.488173135395158</v>
+        <v>0.4830464015350202</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1142514577732285</v>
       </c>
       <c r="M2">
-        <v>0.4007318258021186</v>
+        <v>1.024217699455193</v>
       </c>
       <c r="N2">
-        <v>2.260317690078054</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.3476558739170486</v>
+      </c>
+      <c r="P2">
+        <v>1.04357181108778</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.205303136895992</v>
+        <v>0.7713237989805748</v>
       </c>
       <c r="C3">
-        <v>0.1825540509985188</v>
+        <v>0.1538230018870763</v>
       </c>
       <c r="D3">
-        <v>0.0158561387899212</v>
+        <v>0.09626606133239335</v>
       </c>
       <c r="E3">
-        <v>0.04711233421226524</v>
+        <v>0.08595276062405333</v>
       </c>
       <c r="F3">
-        <v>2.260792046704267</v>
+        <v>1.01008922190033</v>
       </c>
       <c r="G3">
-        <v>0.0008548459712570311</v>
+        <v>0.7150550491925713</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.006275058400591615</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1022009565725526</v>
+        <v>0.538991138210946</v>
       </c>
       <c r="K3">
-        <v>1.305271656029902</v>
+        <v>0.4756396579699498</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1033779451345396</v>
       </c>
       <c r="M3">
-        <v>0.3548004565125567</v>
+        <v>0.890215111074383</v>
       </c>
       <c r="N3">
-        <v>2.265434243399255</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3042855269695934</v>
+      </c>
+      <c r="P3">
+        <v>1.080206809869072</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.104567798019986</v>
+        <v>0.7002019644860695</v>
       </c>
       <c r="C4">
-        <v>0.1664931995429981</v>
+        <v>0.1396554411898165</v>
       </c>
       <c r="D4">
-        <v>0.01436882722661181</v>
+        <v>0.08848403117541892</v>
       </c>
       <c r="E4">
-        <v>0.04458665863270816</v>
+        <v>0.07981742023039828</v>
       </c>
       <c r="F4">
-        <v>2.189172918653568</v>
+        <v>0.9807084920566354</v>
       </c>
       <c r="G4">
-        <v>0.0008592001654190306</v>
+        <v>0.695548103883965</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.007921327088321606</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09849891343862538</v>
+        <v>0.5332017415590826</v>
       </c>
       <c r="K4">
-        <v>1.194895309337141</v>
+        <v>0.4716673333975372</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.09668788928297545</v>
       </c>
       <c r="M4">
-        <v>0.3271273469180187</v>
+        <v>0.8081493550465382</v>
       </c>
       <c r="N4">
-        <v>2.270641011643548</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.2777002908785704</v>
+      </c>
+      <c r="P4">
+        <v>1.103573226629464</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.063911061918049</v>
+        <v>0.6712535801628121</v>
       </c>
       <c r="C5">
-        <v>0.1600124287435705</v>
+        <v>0.133890413410839</v>
       </c>
       <c r="D5">
-        <v>0.01376430718409338</v>
+        <v>0.08531317166413288</v>
       </c>
       <c r="E5">
-        <v>0.04357296007130351</v>
+        <v>0.07731549789865966</v>
       </c>
       <c r="F5">
-        <v>2.160773106605504</v>
+        <v>0.9689698603372747</v>
       </c>
       <c r="G5">
-        <v>0.0008610073911089495</v>
+        <v>0.6878158702750738</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.008662959062421705</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09702555185788952</v>
+        <v>0.5309753081400856</v>
       </c>
       <c r="K5">
-        <v>1.150349158228579</v>
+        <v>0.4701874498383738</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.09395670568346048</v>
       </c>
       <c r="M5">
-        <v>0.3159705852869266</v>
+        <v>0.7747487460030698</v>
       </c>
       <c r="N5">
-        <v>2.273258591828409</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.2668745722302361</v>
+      </c>
+      <c r="P5">
+        <v>1.113309477808304</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.057182549018876</v>
+        <v>0.6664485267560281</v>
       </c>
       <c r="C6">
-        <v>0.1589399493294792</v>
+        <v>0.1329335762466286</v>
       </c>
       <c r="D6">
-        <v>0.01366401508370529</v>
+        <v>0.08478665069421254</v>
       </c>
       <c r="E6">
-        <v>0.04340554193842294</v>
+        <v>0.07689992066128681</v>
       </c>
       <c r="F6">
-        <v>2.156103210815445</v>
+        <v>0.9670344670030602</v>
       </c>
       <c r="G6">
-        <v>0.0008613094913520792</v>
+        <v>0.6865447110040321</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.008790289613470476</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0967829605348669</v>
+        <v>0.5306134809937646</v>
       </c>
       <c r="K6">
-        <v>1.142977032884659</v>
+        <v>0.4699499382286199</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.0935028543909695</v>
       </c>
       <c r="M6">
-        <v>0.3141249203353169</v>
+        <v>0.7692048020189759</v>
       </c>
       <c r="N6">
-        <v>2.273722526409173</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.2650773623941802</v>
+      </c>
+      <c r="P6">
+        <v>1.114938969624486</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.104017950819525</v>
+        <v>0.699811429702379</v>
       </c>
       <c r="C7">
-        <v>0.1664055481836328</v>
+        <v>0.1395776610422104</v>
       </c>
       <c r="D7">
-        <v>0.01436066841086969</v>
+        <v>0.08844126745786696</v>
       </c>
       <c r="E7">
-        <v>0.04457292611981778</v>
+        <v>0.07978368680792514</v>
       </c>
       <c r="F7">
-        <v>2.188786799816427</v>
+        <v>0.9805492482095985</v>
       </c>
       <c r="G7">
-        <v>0.0008592244040062587</v>
+        <v>0.6954429608136081</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.007931046595422625</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0984789036171918</v>
+        <v>0.5331711842334101</v>
       </c>
       <c r="K7">
-        <v>1.194292855814581</v>
+        <v>0.4716468204010802</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.09665107748294588</v>
       </c>
       <c r="M7">
-        <v>0.3269764122405903</v>
+        <v>0.8076987481230731</v>
       </c>
       <c r="N7">
-        <v>2.270674335730746</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.2775542632081169</v>
+      </c>
+      <c r="P7">
+        <v>1.103703672229685</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.314270375179575</v>
+        <v>0.8473616400497406</v>
       </c>
       <c r="C8">
-        <v>0.1999345506841195</v>
+        <v>0.1689760815443577</v>
       </c>
       <c r="D8">
-        <v>0.01744930836859382</v>
+        <v>0.1045740139504403</v>
       </c>
       <c r="E8">
-        <v>0.04986381646894955</v>
+        <v>0.09249691671104543</v>
       </c>
       <c r="F8">
-        <v>2.340059100260063</v>
+        <v>1.042276591203517</v>
       </c>
       <c r="G8">
-        <v>0.000850309228374532</v>
+        <v>0.7366455756734211</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.004769151754196788</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1062788603818845</v>
+        <v>0.5456376926051547</v>
       </c>
       <c r="K8">
-        <v>1.42467700759866</v>
+        <v>0.480369530154416</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1105041888304257</v>
       </c>
       <c r="M8">
-        <v>0.3847769448463865</v>
+        <v>0.9779623508897828</v>
       </c>
       <c r="N8">
-        <v>2.261638555392068</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.332690609684704</v>
+      </c>
+      <c r="P8">
+        <v>1.056019348869434</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.742680816796451</v>
+        <v>1.138563136654483</v>
       </c>
       <c r="C9">
-        <v>0.2683690722635674</v>
+        <v>0.227073423112131</v>
       </c>
       <c r="D9">
-        <v>0.02357624452177021</v>
+        <v>0.136294430111235</v>
       </c>
       <c r="E9">
-        <v>0.06082324225844005</v>
+        <v>0.1174602820142141</v>
       </c>
       <c r="F9">
-        <v>2.666039926480764</v>
+        <v>1.171697431633646</v>
       </c>
       <c r="G9">
-        <v>0.0008337852560104607</v>
+        <v>0.8252254782309336</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.001051117648630306</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1228884245975692</v>
+        <v>0.5746937038534554</v>
       </c>
       <c r="K9">
-        <v>1.89426312037557</v>
+        <v>0.5023177354738309</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.137632959514228</v>
       </c>
       <c r="M9">
-        <v>0.5029484433861811</v>
+        <v>1.314100638209538</v>
       </c>
       <c r="N9">
-        <v>2.261459802113862</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.4413202862742622</v>
+      </c>
+      <c r="P9">
+        <v>0.9696719159094478</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.070688501091922</v>
+        <v>1.351100983792122</v>
       </c>
       <c r="C10">
-        <v>0.3209033430865986</v>
+        <v>0.2677326855541935</v>
       </c>
       <c r="D10">
-        <v>0.02814025158637179</v>
+        <v>0.155886666037361</v>
       </c>
       <c r="E10">
-        <v>0.06931841322235499</v>
+        <v>0.1302276148052641</v>
       </c>
       <c r="F10">
-        <v>2.927656428963729</v>
+        <v>1.255622657257135</v>
       </c>
       <c r="G10">
-        <v>0.0008221576898175749</v>
+        <v>0.8842198348951626</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0002580986532771945</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.136079926624177</v>
+        <v>0.5934173852331668</v>
       </c>
       <c r="K10">
-        <v>2.25398631197163</v>
+        <v>0.5159741172145758</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.149809648494525</v>
       </c>
       <c r="M10">
-        <v>0.593671611213189</v>
+        <v>1.557013441742924</v>
       </c>
       <c r="N10">
-        <v>2.273784282667577</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.511378618897588</v>
+      </c>
+      <c r="P10">
+        <v>0.9065654880918323</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.223640602790283</v>
+        <v>1.419653338170775</v>
       </c>
       <c r="C11">
-        <v>0.3454474110851038</v>
+        <v>0.2649622946017018</v>
       </c>
       <c r="D11">
-        <v>0.03023508383468965</v>
+        <v>0.1329412456645684</v>
       </c>
       <c r="E11">
-        <v>0.07330094501046247</v>
+        <v>0.09227700782664172</v>
       </c>
       <c r="F11">
-        <v>3.052530315141865</v>
+        <v>1.149330344386883</v>
       </c>
       <c r="G11">
-        <v>0.0008169616726662669</v>
+        <v>0.8129318300867965</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01881964195882802</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1423423310725127</v>
+        <v>0.5530386490571146</v>
       </c>
       <c r="K11">
-        <v>2.421792665531399</v>
+        <v>0.4734520557155264</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.09875480474120124</v>
       </c>
       <c r="M11">
-        <v>0.6360304415252998</v>
+        <v>1.612994214043994</v>
       </c>
       <c r="N11">
-        <v>2.282536795937403</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.4563617044923234</v>
+      </c>
+      <c r="P11">
+        <v>0.8462764001153182</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.28217660224874</v>
+        <v>1.431837274970491</v>
       </c>
       <c r="C12">
-        <v>0.3548489918096607</v>
+        <v>0.2540109023883019</v>
       </c>
       <c r="D12">
-        <v>0.03103147743512125</v>
+        <v>0.1112486464614193</v>
       </c>
       <c r="E12">
-        <v>0.07482799168474585</v>
+        <v>0.06491091146947525</v>
       </c>
       <c r="F12">
-        <v>3.100758194673404</v>
+        <v>1.044967357691164</v>
       </c>
       <c r="G12">
-        <v>0.0008150058929937083</v>
+        <v>0.7419265719412493</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05753695285050497</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1447556766003117</v>
+        <v>0.5155857201258698</v>
       </c>
       <c r="K12">
-        <v>2.486025125994303</v>
+        <v>0.4356528275081146</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.06856596169435747</v>
       </c>
       <c r="M12">
-        <v>0.6522493026374079</v>
+        <v>1.607812831423587</v>
       </c>
       <c r="N12">
-        <v>2.28634501107851</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.3982430250478046</v>
+      </c>
+      <c r="P12">
+        <v>0.814995275907842</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.269541074706297</v>
+        <v>1.40116292364587</v>
       </c>
       <c r="C13">
-        <v>0.3528191759853883</v>
+        <v>0.2362127110514933</v>
       </c>
       <c r="D13">
-        <v>0.03085981319209452</v>
+        <v>0.08940487978453149</v>
       </c>
       <c r="E13">
-        <v>0.07449823853714932</v>
+        <v>0.04417590197296484</v>
       </c>
       <c r="F13">
-        <v>3.090327945991561</v>
+        <v>0.9361321570294479</v>
       </c>
       <c r="G13">
-        <v>0.0008154266057393114</v>
+        <v>0.6669332172484417</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1134024247012633</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1442339822219978</v>
+        <v>0.4781092990013747</v>
       </c>
       <c r="K13">
-        <v>2.472159411014189</v>
+        <v>0.3991475796927588</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.05260410318939268</v>
       </c>
       <c r="M13">
-        <v>0.6487479674961989</v>
+        <v>1.555232391481752</v>
       </c>
       <c r="N13">
-        <v>2.285502172613462</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3348280200175964</v>
+      </c>
+      <c r="P13">
+        <v>0.8032200244994623</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.228443562407051</v>
+        <v>1.360420588791328</v>
       </c>
       <c r="C14">
-        <v>0.3462186467848198</v>
+        <v>0.2207948869934739</v>
       </c>
       <c r="D14">
-        <v>0.03030053824492285</v>
+        <v>0.07444270749142845</v>
       </c>
       <c r="E14">
-        <v>0.07342618428287295</v>
+        <v>0.03374791690062739</v>
       </c>
       <c r="F14">
-        <v>3.056478599112182</v>
+        <v>0.8590564062058093</v>
       </c>
       <c r="G14">
-        <v>0.0008168005419354798</v>
+        <v>0.6133528471479934</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1628884652657518</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1425400123018505</v>
+        <v>0.4521770041670692</v>
       </c>
       <c r="K14">
-        <v>2.427062781788948</v>
+        <v>0.374525644774593</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.04993238535466382</v>
       </c>
       <c r="M14">
-        <v>0.6373610656420041</v>
+        <v>1.497237583279627</v>
       </c>
       <c r="N14">
-        <v>2.282839949682824</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2889405569880878</v>
+      </c>
+      <c r="P14">
+        <v>0.8043796802385068</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.203352890050724</v>
+        <v>1.341502823649876</v>
       </c>
       <c r="C15">
-        <v>0.3421900563255349</v>
+        <v>0.2156171249288121</v>
       </c>
       <c r="D15">
-        <v>0.02995838731977329</v>
+        <v>0.07057205095801322</v>
       </c>
       <c r="E15">
-        <v>0.07277204973467022</v>
+        <v>0.03168784921203383</v>
       </c>
       <c r="F15">
-        <v>3.035870499463783</v>
+        <v>0.8390673992190614</v>
       </c>
       <c r="G15">
-        <v>0.0008176436093177742</v>
+        <v>0.599325520497672</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1754676669893058</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1415079999005968</v>
+        <v>0.4458145837860172</v>
       </c>
       <c r="K15">
-        <v>2.399532163479961</v>
+        <v>0.3687056035822565</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.05029085541922562</v>
       </c>
       <c r="M15">
-        <v>0.6304101958155712</v>
+        <v>1.473239277100475</v>
       </c>
       <c r="N15">
-        <v>2.28127487835738</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2763541945861334</v>
+      </c>
+      <c r="P15">
+        <v>0.8078853259421495</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.060774509112036</v>
+        <v>1.256503901614025</v>
       </c>
       <c r="C16">
-        <v>0.3193135234667466</v>
+        <v>0.202189679119158</v>
       </c>
       <c r="D16">
-        <v>0.02800376152134731</v>
+        <v>0.0672603846517319</v>
       </c>
       <c r="E16">
-        <v>0.06906068496132889</v>
+        <v>0.03107413797711622</v>
       </c>
       <c r="F16">
-        <v>2.919621733236283</v>
+        <v>0.826324977469838</v>
       </c>
       <c r="G16">
-        <v>0.0008224990088983031</v>
+        <v>0.5896107851493184</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1631324796254603</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1356762840516552</v>
+        <v>0.4453856113791232</v>
       </c>
       <c r="K16">
-        <v>2.243110985228071</v>
+        <v>0.370134285981127</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.04880516356022557</v>
       </c>
       <c r="M16">
-        <v>0.5909270911759918</v>
+        <v>1.380254922565229</v>
       </c>
       <c r="N16">
-        <v>2.273279033407306</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2610804005860103</v>
+      </c>
+      <c r="P16">
+        <v>0.8348349542395965</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.974318540732213</v>
+        <v>1.21307831407259</v>
       </c>
       <c r="C17">
-        <v>0.3054547133020549</v>
+        <v>0.2000126890799976</v>
       </c>
       <c r="D17">
-        <v>0.02680973914915086</v>
+        <v>0.07238108798325982</v>
       </c>
       <c r="E17">
-        <v>0.06681545914985421</v>
+        <v>0.03537190028875692</v>
       </c>
       <c r="F17">
-        <v>2.849874980748552</v>
+        <v>0.8570734330597176</v>
       </c>
       <c r="G17">
-        <v>0.0008255004801160321</v>
+        <v>0.6104657057271368</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1256043223617525</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1321686223499938</v>
+        <v>0.4588154677151408</v>
       </c>
       <c r="K17">
-        <v>2.148279045932014</v>
+        <v>0.3842846895930379</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.04764063972370325</v>
       </c>
       <c r="M17">
-        <v>0.566999191358363</v>
+        <v>1.33978614987214</v>
       </c>
       <c r="N17">
-        <v>2.269207732860394</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2731020412174168</v>
+      </c>
+      <c r="P17">
+        <v>0.8549483663287223</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.924938198240113</v>
+        <v>1.200042023828985</v>
       </c>
       <c r="C18">
-        <v>0.2975433450149865</v>
+        <v>0.2073174622668716</v>
       </c>
       <c r="D18">
-        <v>0.02612469448495602</v>
+        <v>0.0863275453468475</v>
       </c>
       <c r="E18">
-        <v>0.06553504545590982</v>
+        <v>0.04804643891823623</v>
       </c>
       <c r="F18">
-        <v>2.810303946593493</v>
+        <v>0.9306571522405136</v>
       </c>
       <c r="G18">
-        <v>0.0008272357443174752</v>
+        <v>0.6610270520368431</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07279279768951596</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1301754416420948</v>
+        <v>0.486102565010782</v>
       </c>
       <c r="K18">
-        <v>2.094120560763656</v>
+        <v>0.4115750320430003</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.05416053373857288</v>
       </c>
       <c r="M18">
-        <v>0.5533374991165516</v>
+        <v>1.339395128606725</v>
       </c>
       <c r="N18">
-        <v>2.267159421094831</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.3118054582519676</v>
+      </c>
+      <c r="P18">
+        <v>0.8744450616441748</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.908276169182329</v>
+        <v>1.212192287030632</v>
       </c>
       <c r="C19">
-        <v>0.2948745580643219</v>
+        <v>0.2219563665661326</v>
       </c>
       <c r="D19">
-        <v>0.02589303365420648</v>
+        <v>0.1079796314472361</v>
       </c>
       <c r="E19">
-        <v>0.06510334832152154</v>
+        <v>0.07211589341115499</v>
       </c>
       <c r="F19">
-        <v>2.796996742120641</v>
+        <v>1.037109359480723</v>
       </c>
       <c r="G19">
-        <v>0.0008278248492156687</v>
+        <v>0.7340646558059234</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02727121969020629</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1295046402106763</v>
+        <v>0.5235065608627991</v>
       </c>
       <c r="K19">
-        <v>2.075847227886527</v>
+        <v>0.4486678889588092</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.07769277964320054</v>
       </c>
       <c r="M19">
-        <v>0.5487285988188972</v>
+        <v>1.371150813491681</v>
       </c>
       <c r="N19">
-        <v>2.266515096893599</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.3723331479426903</v>
+      </c>
+      <c r="P19">
+        <v>0.8964481026262821</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.983485485580786</v>
+        <v>1.295017414987171</v>
       </c>
       <c r="C20">
-        <v>0.3069237134949674</v>
+        <v>0.256923193361871</v>
       </c>
       <c r="D20">
-        <v>0.02693666321592758</v>
+        <v>0.1505772493465685</v>
       </c>
       <c r="E20">
-        <v>0.06705331711482643</v>
+        <v>0.1266304892475567</v>
       </c>
       <c r="F20">
-        <v>2.857242513645915</v>
+        <v>1.232442000021067</v>
       </c>
       <c r="G20">
-        <v>0.0008251800585371274</v>
+        <v>0.8678360151762945</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0003339963351773889</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1325394707343008</v>
+        <v>0.5880279713774996</v>
       </c>
       <c r="K20">
-        <v>2.158333470003356</v>
+        <v>0.5118987100846013</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1462709578349788</v>
       </c>
       <c r="M20">
-        <v>0.5695357516866721</v>
+        <v>1.492803296083196</v>
       </c>
       <c r="N20">
-        <v>2.269610478616983</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.4925269350122576</v>
+      </c>
+      <c r="P20">
+        <v>0.9225785600271585</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.240497502884352</v>
+        <v>1.463901408509031</v>
       </c>
       <c r="C21">
-        <v>0.3481543482652967</v>
+        <v>0.2921171062264705</v>
       </c>
       <c r="D21">
-        <v>0.03046472222903418</v>
+        <v>0.1715855364621746</v>
       </c>
       <c r="E21">
-        <v>0.07374054162058385</v>
+        <v>0.1452500496154521</v>
       </c>
       <c r="F21">
-        <v>3.06639460811806</v>
+        <v>1.325487653372292</v>
       </c>
       <c r="G21">
-        <v>0.000816396675776511</v>
+        <v>0.9331436186110125</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.045048798000494E-05</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1430363984160863</v>
+        <v>0.6124933333821332</v>
       </c>
       <c r="K21">
-        <v>2.440289333526607</v>
+        <v>0.5325803363083281</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1677962846197332</v>
       </c>
       <c r="M21">
-        <v>0.6407006439070599</v>
+        <v>1.689833067036915</v>
       </c>
       <c r="N21">
-        <v>2.283608154180726</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.562425969609933</v>
+      </c>
+      <c r="P21">
+        <v>0.8825727137285249</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.412104932092632</v>
+        <v>1.573203015996995</v>
       </c>
       <c r="C22">
-        <v>0.3757340901016448</v>
+        <v>0.3140039193027349</v>
       </c>
       <c r="D22">
-        <v>0.03278897563796335</v>
+        <v>0.1834122839597541</v>
       </c>
       <c r="E22">
-        <v>0.07822253960040015</v>
+        <v>0.1545759770450346</v>
       </c>
       <c r="F22">
-        <v>3.208624644847106</v>
+        <v>1.378958469990167</v>
       </c>
       <c r="G22">
-        <v>0.0008107243783201501</v>
+        <v>0.971184519778248</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.00031512051270699</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1501433552244507</v>
+        <v>0.626230381689254</v>
       </c>
       <c r="K22">
-        <v>2.628621202170677</v>
+        <v>0.5438753307169293</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1779203264551228</v>
       </c>
       <c r="M22">
-        <v>0.6882633144858019</v>
+        <v>1.816112830027436</v>
       </c>
       <c r="N22">
-        <v>2.295657431862253</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.6030558447901342</v>
+      </c>
+      <c r="P22">
+        <v>0.8551452608245995</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.32015402264733</v>
+        <v>1.514809428421529</v>
       </c>
       <c r="C23">
-        <v>0.3609511527942857</v>
+        <v>0.3023088197530512</v>
       </c>
       <c r="D23">
-        <v>0.03154662877015113</v>
+        <v>0.1770956728277469</v>
       </c>
       <c r="E23">
-        <v>0.07581950387289993</v>
+        <v>0.1495940202326267</v>
       </c>
       <c r="F23">
-        <v>3.13217209722049</v>
+        <v>1.350287902298916</v>
       </c>
       <c r="G23">
-        <v>0.0008137461235078184</v>
+        <v>0.9507575173066272</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0001264186420371072</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1463261324554921</v>
+        <v>0.6188317217086308</v>
       </c>
       <c r="K23">
-        <v>2.527701858981686</v>
+        <v>0.5377758190189965</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.172511680807176</v>
       </c>
       <c r="M23">
-        <v>0.6627740580941222</v>
+        <v>1.748645733767404</v>
       </c>
       <c r="N23">
-        <v>2.288946172381486</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.5813531283806839</v>
+      </c>
+      <c r="P23">
+        <v>0.8696921921587624</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.979340105388872</v>
+        <v>1.294824433189547</v>
       </c>
       <c r="C24">
-        <v>0.3062594043803983</v>
+        <v>0.2582954154042625</v>
       </c>
       <c r="D24">
-        <v>0.02687927647192367</v>
+        <v>0.1532623101117991</v>
       </c>
       <c r="E24">
-        <v>0.06694574929277763</v>
+        <v>0.1308157868484443</v>
       </c>
       <c r="F24">
-        <v>2.853910016851273</v>
+        <v>1.244498112527708</v>
       </c>
       <c r="G24">
-        <v>0.0008253248909138752</v>
+        <v>0.8760105589908989</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0001926795288731409</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1323717375490219</v>
+        <v>0.5922341800197444</v>
       </c>
       <c r="K24">
-        <v>2.15378674497822</v>
+        <v>0.5161870558942852</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1521299996314198</v>
       </c>
       <c r="M24">
-        <v>0.5683886791885939</v>
+        <v>1.494540500467622</v>
       </c>
       <c r="N24">
-        <v>2.269427489785116</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.4995202206474403</v>
+      </c>
+      <c r="P24">
+        <v>0.9267535084371517</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.624724368199992</v>
+        <v>1.059515909184881</v>
       </c>
       <c r="C25">
-        <v>0.2495080256077529</v>
+        <v>0.2112919728521092</v>
       </c>
       <c r="D25">
-        <v>0.0219093092939957</v>
+        <v>0.1276975553552546</v>
       </c>
       <c r="E25">
-        <v>0.05778736105017757</v>
+        <v>0.1106956950428604</v>
       </c>
       <c r="F25">
-        <v>2.574299306888719</v>
+        <v>1.135701928949729</v>
       </c>
       <c r="G25">
-        <v>0.0008381598546904486</v>
+        <v>0.8003464784851104</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.001769560823343896</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1182361123458904</v>
+        <v>0.5663027603583686</v>
       </c>
       <c r="K25">
-        <v>1.764944151823698</v>
+        <v>0.4958210931458851</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1302873466485437</v>
       </c>
       <c r="M25">
-        <v>0.4703694384306942</v>
+        <v>1.222839993490965</v>
       </c>
       <c r="N25">
-        <v>2.25945856480611</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0.4118552570438254</v>
+      </c>
+      <c r="P25">
+        <v>0.9922300471063963</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_11/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8874410737371932</v>
+        <v>0.8305969870460785</v>
       </c>
       <c r="C2">
-        <v>0.176965973869855</v>
+        <v>0.2092385958549698</v>
       </c>
       <c r="D2">
-        <v>0.1089485362912797</v>
+        <v>0.1193555051477233</v>
       </c>
       <c r="E2">
-        <v>0.09594102407934457</v>
+        <v>0.09967412349320171</v>
       </c>
       <c r="F2">
-        <v>1.059537568000877</v>
+        <v>0.9819574898539969</v>
       </c>
       <c r="G2">
-        <v>0.7483069331752006</v>
+        <v>0.6584324424094774</v>
       </c>
       <c r="H2">
-        <v>0.004072799460150822</v>
+        <v>0.00352384879888723</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5493143735643713</v>
+        <v>0.5287052933548324</v>
       </c>
       <c r="K2">
-        <v>0.4830464015350202</v>
+        <v>0.419411156619617</v>
       </c>
       <c r="L2">
-        <v>0.1142514577732285</v>
+        <v>0.2012815903594323</v>
       </c>
       <c r="M2">
-        <v>1.024217699455193</v>
+        <v>0.1198716534854931</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1145394189965216</v>
       </c>
       <c r="O2">
-        <v>0.3476558739170486</v>
+        <v>1.013941387687964</v>
       </c>
       <c r="P2">
-        <v>1.04357181108778</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3485010596093758</v>
+      </c>
+      <c r="R2">
+        <v>0.9805707913058441</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7713237989805748</v>
+        <v>0.7260463127653907</v>
       </c>
       <c r="C3">
-        <v>0.1538230018870763</v>
+        <v>0.1803648634252824</v>
       </c>
       <c r="D3">
-        <v>0.09626606133239335</v>
+        <v>0.1053703936795785</v>
       </c>
       <c r="E3">
-        <v>0.08595276062405333</v>
+        <v>0.08960256861383087</v>
       </c>
       <c r="F3">
-        <v>1.01008922190033</v>
+        <v>0.9404110768757832</v>
       </c>
       <c r="G3">
-        <v>0.7150550491925713</v>
+        <v>0.6349084098548872</v>
       </c>
       <c r="H3">
-        <v>0.006275058400591615</v>
+        <v>0.005431763527453726</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.538991138210946</v>
+        <v>0.5172573061538515</v>
       </c>
       <c r="K3">
-        <v>0.4756396579699498</v>
+        <v>0.4161418097413545</v>
       </c>
       <c r="L3">
-        <v>0.1033779451345396</v>
+        <v>0.204785504353417</v>
       </c>
       <c r="M3">
-        <v>0.890215111074383</v>
+        <v>0.115064960277536</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1042565689068766</v>
       </c>
       <c r="O3">
-        <v>0.3042855269695934</v>
+        <v>0.8824989255221851</v>
       </c>
       <c r="P3">
-        <v>1.080206809869072</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3051504032657775</v>
+      </c>
+      <c r="R3">
+        <v>1.016055147685003</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7002019644860695</v>
+        <v>0.6617527128446454</v>
       </c>
       <c r="C4">
-        <v>0.1396554411898165</v>
+        <v>0.1627847101510156</v>
       </c>
       <c r="D4">
-        <v>0.08848403117541892</v>
+        <v>0.09680871860868479</v>
       </c>
       <c r="E4">
-        <v>0.07981742023039828</v>
+        <v>0.08341684756764423</v>
       </c>
       <c r="F4">
-        <v>0.9807084920566354</v>
+        <v>0.9156414131754573</v>
       </c>
       <c r="G4">
-        <v>0.695548103883965</v>
+        <v>0.6212992220159492</v>
       </c>
       <c r="H4">
-        <v>0.007921327088321606</v>
+        <v>0.006859376037894105</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5332017415590826</v>
+        <v>0.5104485425922434</v>
       </c>
       <c r="K4">
-        <v>0.4716673333975372</v>
+        <v>0.4145232206244032</v>
       </c>
       <c r="L4">
-        <v>0.09668788928297545</v>
+        <v>0.2070158004667775</v>
       </c>
       <c r="M4">
-        <v>0.8081493550465382</v>
+        <v>0.1128462166017936</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.09791999294368026</v>
       </c>
       <c r="O4">
-        <v>0.2777002908785704</v>
+        <v>0.8018733515495455</v>
       </c>
       <c r="P4">
-        <v>1.103573226629464</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2785612826185968</v>
+      </c>
+      <c r="R4">
+        <v>1.038621930343293</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6712535801628121</v>
+        <v>0.6355212773853225</v>
       </c>
       <c r="C5">
-        <v>0.133890413410839</v>
+        <v>0.1556552436309602</v>
       </c>
       <c r="D5">
-        <v>0.08531317166413288</v>
+        <v>0.09332531386068865</v>
       </c>
       <c r="E5">
-        <v>0.07731549789865966</v>
+        <v>0.08089477787084931</v>
       </c>
       <c r="F5">
-        <v>0.9689698603372747</v>
+        <v>0.9057236926862373</v>
       </c>
       <c r="G5">
-        <v>0.6878158702750738</v>
+        <v>0.6159519791455352</v>
       </c>
       <c r="H5">
-        <v>0.008662959062421705</v>
+        <v>0.00750285798282016</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5309753081400856</v>
+        <v>0.5077268345576158</v>
       </c>
       <c r="K5">
-        <v>0.4701874498383738</v>
+        <v>0.4139572276003385</v>
       </c>
       <c r="L5">
-        <v>0.09395670568346048</v>
+        <v>0.2079442638201705</v>
       </c>
       <c r="M5">
-        <v>0.7747487460030698</v>
+        <v>0.1121232442076323</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.09533084496911215</v>
       </c>
       <c r="O5">
-        <v>0.2668745722302361</v>
+        <v>0.7690290069831747</v>
       </c>
       <c r="P5">
-        <v>1.113309477808304</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2677304656416624</v>
+      </c>
+      <c r="R5">
+        <v>1.048009881419743</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6664485267560281</v>
+        <v>0.6311634992046891</v>
       </c>
       <c r="C6">
-        <v>0.1329335762466286</v>
+        <v>0.1544734130323064</v>
       </c>
       <c r="D6">
-        <v>0.08478665069421254</v>
+        <v>0.09274720964080529</v>
       </c>
       <c r="E6">
-        <v>0.07689992066128681</v>
+        <v>0.08047588374544645</v>
       </c>
       <c r="F6">
-        <v>0.9670344670030602</v>
+        <v>0.9040872165713481</v>
       </c>
       <c r="G6">
-        <v>0.6865447110040321</v>
+        <v>0.6150757484811606</v>
       </c>
       <c r="H6">
-        <v>0.008790289613470476</v>
+        <v>0.00761335831451565</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5306134809937646</v>
+        <v>0.5072780224437992</v>
       </c>
       <c r="K6">
-        <v>0.4699499382286199</v>
+        <v>0.4138687789787028</v>
       </c>
       <c r="L6">
-        <v>0.0935028543909695</v>
+        <v>0.2080996115783122</v>
       </c>
       <c r="M6">
-        <v>0.7692048020189759</v>
+        <v>0.1120140525929063</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.09490046566182286</v>
       </c>
       <c r="O6">
-        <v>0.2650773623941802</v>
+        <v>0.7635756516378649</v>
       </c>
       <c r="P6">
-        <v>1.114938969624486</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.265932211078475</v>
+      </c>
+      <c r="R6">
+        <v>1.049580210285374</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.699811429702379</v>
+        <v>0.6608836974785106</v>
       </c>
       <c r="C7">
-        <v>0.1395776610422104</v>
+        <v>0.1621866451486085</v>
       </c>
       <c r="D7">
-        <v>0.08844126745786696</v>
+        <v>0.09698532195773879</v>
       </c>
       <c r="E7">
-        <v>0.07978368680792514</v>
+        <v>0.08344000793342232</v>
       </c>
       <c r="F7">
-        <v>0.9805492482095985</v>
+        <v>0.9140295560132898</v>
       </c>
       <c r="G7">
-        <v>0.6954429608136081</v>
+        <v>0.6243335302424668</v>
       </c>
       <c r="H7">
-        <v>0.007931046595422625</v>
+        <v>0.006875081618819501</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5331711842334101</v>
+        <v>0.5048928449384391</v>
       </c>
       <c r="K7">
-        <v>0.4716468204010802</v>
+        <v>0.4138550712243614</v>
       </c>
       <c r="L7">
-        <v>0.09665107748294588</v>
+        <v>0.2067196275991066</v>
       </c>
       <c r="M7">
-        <v>0.8076987481230731</v>
+        <v>0.1126464012329773</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.0978568262662165</v>
       </c>
       <c r="O7">
-        <v>0.2775542632081169</v>
+        <v>0.8003258592667919</v>
       </c>
       <c r="P7">
-        <v>1.103703672229685</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.2782585828339066</v>
+      </c>
+      <c r="R7">
+        <v>1.038246302545666</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8473616400497406</v>
+        <v>0.792836872786836</v>
       </c>
       <c r="C8">
-        <v>0.1689760815443577</v>
+        <v>0.1975552151702544</v>
       </c>
       <c r="D8">
-        <v>0.1045740139504403</v>
+        <v>0.1152814356086367</v>
       </c>
       <c r="E8">
-        <v>0.09249691671104543</v>
+        <v>0.09639493035064106</v>
       </c>
       <c r="F8">
-        <v>1.042276591203517</v>
+        <v>0.9625841810837628</v>
       </c>
       <c r="G8">
-        <v>0.7366455756734211</v>
+        <v>0.6605345130892317</v>
       </c>
       <c r="H8">
-        <v>0.004769151754196788</v>
+        <v>0.004144355384893994</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5456376926051547</v>
+        <v>0.5066563149656673</v>
       </c>
       <c r="K8">
-        <v>0.480369530154416</v>
+        <v>0.4160378982694404</v>
       </c>
       <c r="L8">
-        <v>0.1105041888304257</v>
+        <v>0.2015356802446355</v>
       </c>
       <c r="M8">
-        <v>0.9779623508897828</v>
+        <v>0.1173657048156898</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1109060978253495</v>
       </c>
       <c r="O8">
-        <v>0.332690609684704</v>
+        <v>0.9648894960309065</v>
       </c>
       <c r="P8">
-        <v>1.056019348869434</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3330196927590023</v>
+      </c>
+      <c r="R8">
+        <v>0.9911065562994263</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.138563136654483</v>
+        <v>1.052993779344092</v>
       </c>
       <c r="C9">
-        <v>0.227073423112131</v>
+        <v>0.2700416530754239</v>
       </c>
       <c r="D9">
-        <v>0.136294430111235</v>
+        <v>0.1505859649843018</v>
       </c>
       <c r="E9">
-        <v>0.1174602820142141</v>
+        <v>0.1216207858678295</v>
       </c>
       <c r="F9">
-        <v>1.171697431633646</v>
+        <v>1.069511187479662</v>
       </c>
       <c r="G9">
-        <v>0.8252254782309336</v>
+        <v>0.7272974912428367</v>
       </c>
       <c r="H9">
-        <v>0.001051117648630306</v>
+        <v>0.0009194271253716302</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5746937038534554</v>
+        <v>0.5316434754078614</v>
       </c>
       <c r="K9">
-        <v>0.5023177354738309</v>
+        <v>0.4259987531963176</v>
       </c>
       <c r="L9">
-        <v>0.137632959514228</v>
+        <v>0.1931355170762892</v>
       </c>
       <c r="M9">
-        <v>1.314100638209538</v>
+        <v>0.1332590483397951</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1364731266889336</v>
       </c>
       <c r="O9">
-        <v>0.4413202862742622</v>
+        <v>1.292688365437925</v>
       </c>
       <c r="P9">
-        <v>0.9696719159094478</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.4413301765344215</v>
+      </c>
+      <c r="R9">
+        <v>0.9068668158792939</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.351100983792122</v>
+        <v>1.239090755691564</v>
       </c>
       <c r="C10">
-        <v>0.2677326855541935</v>
+        <v>0.3179622065363503</v>
       </c>
       <c r="D10">
-        <v>0.155886666037361</v>
+        <v>0.1739282843290084</v>
       </c>
       <c r="E10">
-        <v>0.1302276148052641</v>
+        <v>0.1347890433015415</v>
       </c>
       <c r="F10">
-        <v>1.255622657257135</v>
+        <v>1.128892178851345</v>
       </c>
       <c r="G10">
-        <v>0.8842198348951626</v>
+        <v>0.7901616661605857</v>
       </c>
       <c r="H10">
-        <v>0.0002580986532771945</v>
+        <v>0.0002564105350191248</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5934173852331668</v>
+        <v>0.5161973576159653</v>
       </c>
       <c r="K10">
-        <v>0.5159741172145758</v>
+        <v>0.42738331809106</v>
       </c>
       <c r="L10">
-        <v>0.149809648494525</v>
+        <v>0.1844215544523848</v>
       </c>
       <c r="M10">
-        <v>1.557013441742924</v>
+        <v>0.1455052997490682</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.147396087287234</v>
       </c>
       <c r="O10">
-        <v>0.511378618897588</v>
+        <v>1.522174858480554</v>
       </c>
       <c r="P10">
-        <v>0.9065654880918323</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.5100862017314256</v>
+      </c>
+      <c r="R10">
+        <v>0.8443955322588597</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.419653338170775</v>
+        <v>1.299843251472169</v>
       </c>
       <c r="C11">
-        <v>0.2649622946017018</v>
+        <v>0.3068111019662467</v>
       </c>
       <c r="D11">
-        <v>0.1329412456645684</v>
+        <v>0.1518036816377446</v>
       </c>
       <c r="E11">
-        <v>0.09227700782664172</v>
+        <v>0.09631057901824391</v>
       </c>
       <c r="F11">
-        <v>1.149330344386883</v>
+        <v>1.01465266162181</v>
       </c>
       <c r="G11">
-        <v>0.8129318300867965</v>
+        <v>0.7649302502290141</v>
       </c>
       <c r="H11">
-        <v>0.01881964195882802</v>
+        <v>0.01883251905146821</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5530386490571146</v>
+        <v>0.4264098681422865</v>
       </c>
       <c r="K11">
-        <v>0.4734520557155264</v>
+        <v>0.384596990606159</v>
       </c>
       <c r="L11">
-        <v>0.09875480474120124</v>
+        <v>0.1653890508328253</v>
       </c>
       <c r="M11">
-        <v>1.612994214043994</v>
+        <v>0.1337663154329434</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.09661115466164105</v>
       </c>
       <c r="O11">
-        <v>0.4563617044923234</v>
+        <v>1.562956365569647</v>
       </c>
       <c r="P11">
-        <v>0.8462764001153182</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.4531377784816826</v>
+      </c>
+      <c r="R11">
+        <v>0.7979844483459071</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.431837274970491</v>
+        <v>1.313273113608318</v>
       </c>
       <c r="C12">
-        <v>0.2540109023883019</v>
+        <v>0.289338506449127</v>
       </c>
       <c r="D12">
-        <v>0.1112486464614193</v>
+        <v>0.1289882118042982</v>
       </c>
       <c r="E12">
-        <v>0.06491091146947525</v>
+        <v>0.06808703972589569</v>
       </c>
       <c r="F12">
-        <v>1.044967357691164</v>
+        <v>0.9148941157624506</v>
       </c>
       <c r="G12">
-        <v>0.7419265719412493</v>
+        <v>0.7182173326158932</v>
       </c>
       <c r="H12">
-        <v>0.05753695285050497</v>
+        <v>0.05755823012898986</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5155857201258698</v>
+        <v>0.3773525113022203</v>
       </c>
       <c r="K12">
-        <v>0.4356528275081146</v>
+        <v>0.3517885065250184</v>
       </c>
       <c r="L12">
-        <v>0.06856596169435747</v>
+        <v>0.1528136985969191</v>
       </c>
       <c r="M12">
-        <v>1.607812831423587</v>
+        <v>0.1221797086090071</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.06700396169495448</v>
       </c>
       <c r="O12">
-        <v>0.3982430250478046</v>
+        <v>1.552099814730781</v>
       </c>
       <c r="P12">
-        <v>0.814995275907842</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.3943993436203499</v>
+      </c>
+      <c r="R12">
+        <v>0.7802369266143963</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.40116292364587</v>
+        <v>1.292358156687698</v>
       </c>
       <c r="C13">
-        <v>0.2362127110514933</v>
+        <v>0.267208295402952</v>
       </c>
       <c r="D13">
-        <v>0.08940487978453149</v>
+        <v>0.1042681335910913</v>
       </c>
       <c r="E13">
-        <v>0.04417590197296484</v>
+        <v>0.04629557549708174</v>
       </c>
       <c r="F13">
-        <v>0.9361321570294479</v>
+        <v>0.8223566092748698</v>
       </c>
       <c r="G13">
-        <v>0.6669332172484417</v>
+        <v>0.6456797273943806</v>
       </c>
       <c r="H13">
-        <v>0.1134024247012633</v>
+        <v>0.113421376175225</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4781092990013747</v>
+        <v>0.3583038577589264</v>
       </c>
       <c r="K13">
-        <v>0.3991475796927588</v>
+        <v>0.3252869425345537</v>
       </c>
       <c r="L13">
-        <v>0.05260410318939268</v>
+        <v>0.1440877591106364</v>
       </c>
       <c r="M13">
-        <v>1.555232391481752</v>
+        <v>0.1106785237784607</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.05183815413909887</v>
       </c>
       <c r="O13">
-        <v>0.3348280200175964</v>
+        <v>1.503789496294132</v>
       </c>
       <c r="P13">
-        <v>0.8032200244994623</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3315205642903862</v>
+      </c>
+      <c r="R13">
+        <v>0.7805921707499497</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.360420588791328</v>
+        <v>1.262152146195177</v>
       </c>
       <c r="C14">
-        <v>0.2207948869934739</v>
+        <v>0.2496087840681014</v>
       </c>
       <c r="D14">
-        <v>0.07444270749142845</v>
+        <v>0.08674575824263542</v>
       </c>
       <c r="E14">
-        <v>0.03374791690062739</v>
+        <v>0.03516476821649395</v>
       </c>
       <c r="F14">
-        <v>0.8590564062058093</v>
+        <v>0.7608351452171505</v>
       </c>
       <c r="G14">
-        <v>0.6133528471479934</v>
+        <v>0.5856838430983373</v>
       </c>
       <c r="H14">
-        <v>0.1628884652657518</v>
+        <v>0.1628920776195599</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4521770041670692</v>
+        <v>0.3558523610657645</v>
       </c>
       <c r="K14">
-        <v>0.374525644774593</v>
+        <v>0.3093937230022163</v>
       </c>
       <c r="L14">
-        <v>0.04993238535466382</v>
+        <v>0.1394661310748262</v>
       </c>
       <c r="M14">
-        <v>1.497237583279627</v>
+        <v>0.1027882059634457</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.04976161889988617</v>
       </c>
       <c r="O14">
-        <v>0.2889405569880878</v>
+        <v>1.452999373768591</v>
       </c>
       <c r="P14">
-        <v>0.8043796802385068</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2864025465103097</v>
+      </c>
+      <c r="R14">
+        <v>0.788448569451754</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.341502823649876</v>
+        <v>1.247432696245482</v>
       </c>
       <c r="C15">
-        <v>0.2156171249288121</v>
+        <v>0.244203503769242</v>
       </c>
       <c r="D15">
-        <v>0.07057205095801322</v>
+        <v>0.08201125724482949</v>
       </c>
       <c r="E15">
-        <v>0.03168784921203383</v>
+        <v>0.03294982208708497</v>
       </c>
       <c r="F15">
-        <v>0.8390673992190614</v>
+        <v>0.7464606499808113</v>
       </c>
       <c r="G15">
-        <v>0.599325520497672</v>
+        <v>0.5669219733732689</v>
       </c>
       <c r="H15">
-        <v>0.1754676669893058</v>
+        <v>0.1754609620146681</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4458145837860172</v>
+        <v>0.3598031541327416</v>
       </c>
       <c r="K15">
-        <v>0.3687056035822565</v>
+        <v>0.3064798991691262</v>
       </c>
       <c r="L15">
-        <v>0.05029085541922562</v>
+        <v>0.1389193127999029</v>
       </c>
       <c r="M15">
-        <v>1.473239277100475</v>
+        <v>0.1008453426294196</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.05029456247029884</v>
       </c>
       <c r="O15">
-        <v>0.2763541945861334</v>
+        <v>1.432560149916895</v>
       </c>
       <c r="P15">
-        <v>0.8078853259421495</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2741666003630598</v>
+      </c>
+      <c r="R15">
+        <v>0.7928887070201345</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.256503901614025</v>
+        <v>1.176708267421958</v>
       </c>
       <c r="C16">
-        <v>0.202189679119158</v>
+        <v>0.2329186594039214</v>
       </c>
       <c r="D16">
-        <v>0.0672603846517319</v>
+        <v>0.07649549128998245</v>
       </c>
       <c r="E16">
-        <v>0.03107413797711622</v>
+        <v>0.03238425113148491</v>
       </c>
       <c r="F16">
-        <v>0.826324977469838</v>
+        <v>0.749968709946522</v>
       </c>
       <c r="G16">
-        <v>0.5896107851493184</v>
+        <v>0.5313500256304309</v>
       </c>
       <c r="H16">
-        <v>0.1631324796254603</v>
+        <v>0.163054953855891</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4453856113791232</v>
+        <v>0.4010188665680516</v>
       </c>
       <c r="K16">
-        <v>0.370134285981127</v>
+        <v>0.3149125393677252</v>
       </c>
       <c r="L16">
-        <v>0.04880516356022557</v>
+        <v>0.1443962391964639</v>
       </c>
       <c r="M16">
-        <v>1.380254922565229</v>
+        <v>0.1002592544429568</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.04915646680114172</v>
       </c>
       <c r="O16">
-        <v>0.2610804005860103</v>
+        <v>1.354673457532584</v>
       </c>
       <c r="P16">
-        <v>0.8348349542395965</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2603204981577356</v>
+      </c>
+      <c r="R16">
+        <v>0.8149425788586804</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.21307831407259</v>
+        <v>1.137727738950957</v>
       </c>
       <c r="C17">
-        <v>0.2000126890799976</v>
+        <v>0.2328869649837912</v>
       </c>
       <c r="D17">
-        <v>0.07238108798325982</v>
+        <v>0.08131699603618614</v>
       </c>
       <c r="E17">
-        <v>0.03537190028875692</v>
+        <v>0.03698130561556212</v>
       </c>
       <c r="F17">
-        <v>0.8570734330597176</v>
+        <v>0.7840936719871578</v>
       </c>
       <c r="G17">
-        <v>0.6104657057271368</v>
+        <v>0.5387740112341248</v>
       </c>
       <c r="H17">
-        <v>0.1256043223617525</v>
+        <v>0.1254773837953422</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4588154677151408</v>
+        <v>0.4315052358798681</v>
       </c>
       <c r="K17">
-        <v>0.3842846895930379</v>
+        <v>0.3294864690306802</v>
       </c>
       <c r="L17">
-        <v>0.04764063972370325</v>
+        <v>0.1512476680071195</v>
       </c>
       <c r="M17">
-        <v>1.33978614987214</v>
+        <v>0.103649233863063</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.0479838597095652</v>
       </c>
       <c r="O17">
-        <v>0.2731020412174168</v>
+        <v>1.320202368570364</v>
       </c>
       <c r="P17">
-        <v>0.8549483663287223</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2729479573566671</v>
+      </c>
+      <c r="R17">
+        <v>0.8291589297739659</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.200042023828985</v>
+        <v>1.122627049175577</v>
       </c>
       <c r="C18">
-        <v>0.2073174622668716</v>
+        <v>0.2437221412184414</v>
       </c>
       <c r="D18">
-        <v>0.0863275453468475</v>
+        <v>0.0961877985249231</v>
       </c>
       <c r="E18">
-        <v>0.04804643891823623</v>
+        <v>0.05017636925173186</v>
       </c>
       <c r="F18">
-        <v>0.9306571522405136</v>
+        <v>0.8529818567774896</v>
       </c>
       <c r="G18">
-        <v>0.6610270520368431</v>
+        <v>0.5778937014570289</v>
       </c>
       <c r="H18">
-        <v>0.07279279768951596</v>
+        <v>0.07265398358408959</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.486102565010782</v>
+        <v>0.4636339077722482</v>
       </c>
       <c r="K18">
-        <v>0.4115750320430003</v>
+        <v>0.3526599939213462</v>
       </c>
       <c r="L18">
-        <v>0.05416053373857288</v>
+        <v>0.1607523746148694</v>
       </c>
       <c r="M18">
-        <v>1.339395128606725</v>
+        <v>0.11126938848561</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.05419566155124045</v>
       </c>
       <c r="O18">
-        <v>0.3118054582519676</v>
+        <v>1.321385366467325</v>
       </c>
       <c r="P18">
-        <v>0.8744450616441748</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3119325040361431</v>
+      </c>
+      <c r="R18">
+        <v>0.8407063905301184</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.212192287030632</v>
+        <v>1.128197013035333</v>
       </c>
       <c r="C19">
-        <v>0.2219563665661326</v>
+        <v>0.2632869529734307</v>
       </c>
       <c r="D19">
-        <v>0.1079796314472361</v>
+        <v>0.1196521056839117</v>
       </c>
       <c r="E19">
-        <v>0.07211589341115499</v>
+        <v>0.07495683828300059</v>
       </c>
       <c r="F19">
-        <v>1.037109359480723</v>
+        <v>0.9491175429144647</v>
       </c>
       <c r="G19">
-        <v>0.7340646558059234</v>
+        <v>0.63914023165934</v>
       </c>
       <c r="H19">
-        <v>0.02727121969020629</v>
+        <v>0.02716014916512677</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5235065608627991</v>
+        <v>0.4987361401762342</v>
       </c>
       <c r="K19">
-        <v>0.4486678889588092</v>
+        <v>0.3824092873970031</v>
       </c>
       <c r="L19">
-        <v>0.07769277964320054</v>
+        <v>0.1721675729451064</v>
       </c>
       <c r="M19">
-        <v>1.371150813491681</v>
+        <v>0.1222389756095481</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.07714972971923117</v>
       </c>
       <c r="O19">
-        <v>0.3723331479426903</v>
+        <v>1.352099251045018</v>
       </c>
       <c r="P19">
-        <v>0.8964481026262821</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.372556272125955</v>
+      </c>
+      <c r="R19">
+        <v>0.8527316875504152</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.295017414987171</v>
+        <v>1.192036560582892</v>
       </c>
       <c r="C20">
-        <v>0.256923193361871</v>
+        <v>0.3070825943702289</v>
       </c>
       <c r="D20">
-        <v>0.1505772493465685</v>
+        <v>0.1667780640165972</v>
       </c>
       <c r="E20">
-        <v>0.1266304892475567</v>
+        <v>0.1308692763850239</v>
       </c>
       <c r="F20">
-        <v>1.232442000021067</v>
+        <v>1.117555791454322</v>
       </c>
       <c r="G20">
-        <v>0.8678360151762945</v>
+        <v>0.7613673184801115</v>
       </c>
       <c r="H20">
-        <v>0.0003339963351773889</v>
+        <v>0.0003125845709091024</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5880279713774996</v>
+        <v>0.5384339366798372</v>
       </c>
       <c r="K20">
-        <v>0.5118987100846013</v>
+        <v>0.4289141926993452</v>
       </c>
       <c r="L20">
-        <v>0.1462709578349788</v>
+        <v>0.1873906031563664</v>
       </c>
       <c r="M20">
-        <v>1.492803296083196</v>
+        <v>0.1428708046783633</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1442886683751041</v>
       </c>
       <c r="O20">
-        <v>0.4925269350122576</v>
+        <v>1.465698605855806</v>
       </c>
       <c r="P20">
-        <v>0.9225785600271585</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.4921703708767993</v>
+      </c>
+      <c r="R20">
+        <v>0.8616364024042849</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.463901408509031</v>
+        <v>1.32804815902341</v>
       </c>
       <c r="C21">
-        <v>0.2921171062264705</v>
+        <v>0.3390700406250176</v>
       </c>
       <c r="D21">
-        <v>0.1715855364621746</v>
+        <v>0.1958052638961334</v>
       </c>
       <c r="E21">
-        <v>0.1452500496154521</v>
+        <v>0.1511849081583492</v>
       </c>
       <c r="F21">
-        <v>1.325487653372292</v>
+        <v>1.160413664823821</v>
       </c>
       <c r="G21">
-        <v>0.9331436186110125</v>
+        <v>0.8905120811549239</v>
       </c>
       <c r="H21">
-        <v>3.045048798000494E-05</v>
+        <v>1.656186920429015E-05</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6124933333821332</v>
+        <v>0.4442236187807538</v>
       </c>
       <c r="K21">
-        <v>0.5325803363083281</v>
+        <v>0.4258360981828702</v>
       </c>
       <c r="L21">
-        <v>0.1677962846197332</v>
+        <v>0.179302520961091</v>
       </c>
       <c r="M21">
-        <v>1.689833067036915</v>
+        <v>0.1513594459804857</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1641447458650731</v>
       </c>
       <c r="O21">
-        <v>0.562425969609933</v>
+        <v>1.629625608196733</v>
       </c>
       <c r="P21">
-        <v>0.8825727137285249</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.5578441336699456</v>
+      </c>
+      <c r="R21">
+        <v>0.8125266426310347</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.573203015996995</v>
+        <v>1.415042444109304</v>
       </c>
       <c r="C22">
-        <v>0.3140039193027349</v>
+        <v>0.3575926799613001</v>
       </c>
       <c r="D22">
-        <v>0.1834122839597541</v>
+        <v>0.2132728048261328</v>
       </c>
       <c r="E22">
-        <v>0.1545759770450346</v>
+        <v>0.1617025162932464</v>
       </c>
       <c r="F22">
-        <v>1.378958469990167</v>
+        <v>1.179241016394698</v>
       </c>
       <c r="G22">
-        <v>0.971184519778248</v>
+        <v>0.9800318119523297</v>
       </c>
       <c r="H22">
-        <v>0.00031512051270699</v>
+        <v>0.0002222705701369065</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.626230381689254</v>
+        <v>0.3840961176224909</v>
       </c>
       <c r="K22">
-        <v>0.5438753307169293</v>
+        <v>0.4210737102219966</v>
       </c>
       <c r="L22">
-        <v>0.1779203264551228</v>
+        <v>0.1731978749883183</v>
       </c>
       <c r="M22">
-        <v>1.816112830027436</v>
+        <v>0.1561062070199313</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1731927067123564</v>
       </c>
       <c r="O22">
-        <v>0.6030558447901342</v>
+        <v>1.732014994543192</v>
       </c>
       <c r="P22">
-        <v>0.8551452608245995</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.5953515613786422</v>
+      </c>
+      <c r="R22">
+        <v>0.7800546421923968</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.514809428421529</v>
+        <v>1.370042736311831</v>
       </c>
       <c r="C23">
-        <v>0.3023088197530512</v>
+        <v>0.349112561292543</v>
       </c>
       <c r="D23">
-        <v>0.1770956728277469</v>
+        <v>0.2032704986965257</v>
       </c>
       <c r="E23">
-        <v>0.1495940202326267</v>
+        <v>0.1559074913321332</v>
       </c>
       <c r="F23">
-        <v>1.350287902298916</v>
+        <v>1.173007825880532</v>
       </c>
       <c r="G23">
-        <v>0.9507575173066272</v>
+        <v>0.9224464703704029</v>
       </c>
       <c r="H23">
-        <v>0.0001264186420371072</v>
+        <v>8.496795578172289E-05</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.6188317217086308</v>
+        <v>0.4260756916675206</v>
       </c>
       <c r="K23">
-        <v>0.5377758190189965</v>
+        <v>0.4252288291505764</v>
       </c>
       <c r="L23">
-        <v>0.172511680807176</v>
+        <v>0.1769858040697869</v>
       </c>
       <c r="M23">
-        <v>1.748645733767404</v>
+        <v>0.1542192911413878</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1684250185231662</v>
       </c>
       <c r="O23">
-        <v>0.5813531283806839</v>
+        <v>1.680437230470403</v>
       </c>
       <c r="P23">
-        <v>0.8696921921587624</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.5757688598323654</v>
+      </c>
+      <c r="R23">
+        <v>0.7981204883049031</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.294824433189547</v>
+        <v>1.191375824797205</v>
       </c>
       <c r="C24">
-        <v>0.2582954154042625</v>
+        <v>0.3090195644961113</v>
       </c>
       <c r="D24">
-        <v>0.1532623101117991</v>
+        <v>0.1696424496555551</v>
       </c>
       <c r="E24">
-        <v>0.1308157868484443</v>
+        <v>0.1351380923249437</v>
       </c>
       <c r="F24">
-        <v>1.244498112527708</v>
+        <v>1.128661019932906</v>
       </c>
       <c r="G24">
-        <v>0.8760105589908989</v>
+        <v>0.7678222923762519</v>
       </c>
       <c r="H24">
-        <v>0.0001926795288731409</v>
+        <v>0.0001726024307091567</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.5922341800197444</v>
+        <v>0.5430695155593384</v>
       </c>
       <c r="K24">
-        <v>0.5161870558942852</v>
+        <v>0.4324618093255665</v>
       </c>
       <c r="L24">
-        <v>0.1521299996314198</v>
+        <v>0.1888104979003558</v>
       </c>
       <c r="M24">
-        <v>1.494540500467622</v>
+        <v>0.1441048268413176</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1500767599812463</v>
       </c>
       <c r="O24">
-        <v>0.4995202206474403</v>
+        <v>1.467520591079278</v>
       </c>
       <c r="P24">
-        <v>0.9267535084371517</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.4991936295282144</v>
+      </c>
+      <c r="R24">
+        <v>0.8645227507660831</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.059515909184881</v>
+        <v>0.9833676029991807</v>
       </c>
       <c r="C25">
-        <v>0.2112919728521092</v>
+        <v>0.2510136392742766</v>
       </c>
       <c r="D25">
-        <v>0.1276975553552546</v>
+        <v>0.1406744358485952</v>
       </c>
       <c r="E25">
-        <v>0.1106956950428604</v>
+        <v>0.1147019229755522</v>
       </c>
       <c r="F25">
-        <v>1.135701928949729</v>
+        <v>1.041927030686836</v>
       </c>
       <c r="G25">
-        <v>0.8003464784851104</v>
+        <v>0.7038954301264084</v>
       </c>
       <c r="H25">
-        <v>0.001769560823343896</v>
+        <v>0.001538651574087391</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5663027603583686</v>
+        <v>0.5323063528979048</v>
       </c>
       <c r="K25">
-        <v>0.4958210931458851</v>
+        <v>0.4238390734095283</v>
       </c>
       <c r="L25">
-        <v>0.1302873466485437</v>
+        <v>0.1956996540070115</v>
       </c>
       <c r="M25">
-        <v>1.222839993490965</v>
+        <v>0.1286295999041442</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1296000934135932</v>
       </c>
       <c r="O25">
-        <v>0.4118552570438254</v>
+        <v>1.205439243858308</v>
       </c>
       <c r="P25">
-        <v>0.9922300471063963</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.4122007304154494</v>
+      </c>
+      <c r="R25">
+        <v>0.9295432197846232</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
